--- a/links and documents/gantt chart/Gantt Chart.xlsx
+++ b/links and documents/gantt chart/Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nottingham\FYP\Final-Year-Project-Nottingham\links and documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nottingham\FYP\Final-Year-Project-Nottingham\links and documents\gantt chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81080647-D08E-433E-A95B-4BB2653FE7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06193B0-4884-49FE-AA04-C823CD576399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="23232" windowHeight="12696" xr2:uid="{1D831E61-2840-456F-A9B0-965DD649A84E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{1D831E61-2840-456F-A9B0-965DD649A84E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="113">
   <si>
     <t>Year 3 Final Year Project</t>
   </si>
@@ -411,9 +411,6 @@
   </si>
   <si>
     <t>Deploying Heart Disease Prediction Model Developed onto Cloud Computer</t>
-  </si>
-  <si>
-    <t>Integrating Intel OpenVINO Model Optimizer and Hardware Accelerator</t>
   </si>
   <si>
     <t>Coding Program to Develop Emotion Recognition Model</t>
@@ -867,51 +864,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -993,7 +945,52 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1033,13 +1030,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>92765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>417443</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>92765</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1087,13 +1084,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>92764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>418010</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>92764</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1141,13 +1138,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>5255</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>93223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>93223</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1195,13 +1192,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>425668</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>95983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>10510</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>95983</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2232,13 +2229,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>102455</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>166143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>344502</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>30008</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2300,13 +2297,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>100019</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>164315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>342066</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>28181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2368,13 +2365,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>105881</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>156322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>347928</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>20188</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3048,13 +3045,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>310213</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>178677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4447,13 +4444,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>420413</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>101238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>5255</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>101238</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4501,13 +4498,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>94593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>10511</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>94593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4555,13 +4552,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>94594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>10511</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>94594</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4609,13 +4606,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>6626</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>93902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>3976</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>93902</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4662,13 +4659,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>92766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>6626</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>92766</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4715,13 +4712,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>6626</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>99390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>566</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>99390</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4769,13 +4766,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>6625</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>86138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>566</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>86138</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4946,66 +4943,12 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>93781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>93781</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F03F5F-2CBB-48CE-B9C6-1DF768FCDF99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16718280" y="10205521"/>
-          <a:ext cx="2567940" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
       <xdr:rowOff>97297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>97297</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5053,13 +4996,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>95539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>95539</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5175,13 +5118,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>145868</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>14152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>303681</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>171058</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5243,13 +5186,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>145868</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>303681</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>178678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5266,74 +5209,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18571028" y="10499272"/>
-          <a:ext cx="157813" cy="156906"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>138248</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>14152</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>296061</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171058</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Star: 5 Points 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A184D9A-02A2-41B8-9163-9552A1BAC6D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18563408" y="10125892"/>
           <a:ext cx="157813" cy="156906"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -5675,10 +5550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F8CEE4-0884-423D-B83F-A151007808FC}">
-  <dimension ref="A1:AI65"/>
+  <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5842,117 +5717,117 @@
       <c r="AC4" s="22"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="37" t="s">
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="38" t="s">
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="38"/>
+      <c r="R6" s="67"/>
       <c r="S6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="31"/>
-      <c r="U6" s="32"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62"/>
       <c r="V6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W6" s="33" t="s">
+      <c r="W6" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="35"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="65"/>
       <c r="AD6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="37" t="s">
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="AI6" s="68"/>
+      <c r="AI6" s="55"/>
     </row>
     <row r="7" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39" t="s">
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40" t="s">
+      <c r="M7" s="53"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="27" t="s">
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="28"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="27" t="s">
+      <c r="V7" s="58"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="27" t="s">
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="39" t="s">
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AI7" s="39"/>
+      <c r="AI7" s="53"/>
     </row>
     <row r="8" spans="1:35" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -6058,7 +5933,7 @@
     </row>
     <row r="9" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -6072,21 +5947,21 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="41" t="s">
+      <c r="N9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="50"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="53" t="s">
+      <c r="O9" s="35"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="59" t="s">
+      <c r="R9" s="39"/>
+      <c r="S9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="62" t="s">
+      <c r="V9" s="47" t="s">
         <v>17</v>
       </c>
       <c r="W9" s="11"/>
@@ -6096,16 +5971,16 @@
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
-      <c r="AD9" s="65" t="s">
+      <c r="AD9" s="50" t="s">
         <v>20</v>
       </c>
       <c r="AE9" s="11"/>
       <c r="AF9" s="11"/>
       <c r="AG9" s="11"/>
-      <c r="AH9" s="41" t="s">
+      <c r="AH9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI9" s="42"/>
+      <c r="AI9" s="27"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -6123,15 +5998,15 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="60"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="45"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="63"/>
+      <c r="V10" s="48"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
@@ -6139,12 +6014,12 @@
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
-      <c r="AD10" s="66"/>
+      <c r="AD10" s="51"/>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
-      <c r="AH10" s="43"/>
-      <c r="AI10" s="44"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="29"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -6162,15 +6037,15 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="60"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="45"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="63"/>
+      <c r="V11" s="48"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
@@ -6178,12 +6053,12 @@
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
-      <c r="AD11" s="66"/>
+      <c r="AD11" s="51"/>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
       <c r="AG11" s="11"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="44"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="29"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -6201,15 +6076,15 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="60"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="45"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="63"/>
+      <c r="V12" s="48"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
@@ -6217,12 +6092,12 @@
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
-      <c r="AD12" s="66"/>
+      <c r="AD12" s="51"/>
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
       <c r="AG12" s="11"/>
-      <c r="AH12" s="43"/>
-      <c r="AI12" s="44"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="29"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -6240,15 +6115,15 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="60"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="45"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="63"/>
+      <c r="V13" s="48"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
@@ -6256,12 +6131,12 @@
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
-      <c r="AD13" s="66"/>
+      <c r="AD13" s="51"/>
       <c r="AE13" s="11"/>
       <c r="AF13" s="11"/>
       <c r="AG13" s="11"/>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="44"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="29"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
@@ -6279,15 +6154,15 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="60"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="45"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="63"/>
+      <c r="V14" s="48"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
@@ -6295,12 +6170,12 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
-      <c r="AD14" s="66"/>
+      <c r="AD14" s="51"/>
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
-      <c r="AH14" s="43"/>
-      <c r="AI14" s="44"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="29"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
@@ -6318,15 +6193,15 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="60"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="45"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
-      <c r="V15" s="63"/>
+      <c r="V15" s="48"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
@@ -6334,12 +6209,12 @@
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
-      <c r="AD15" s="66"/>
+      <c r="AD15" s="51"/>
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="11"/>
-      <c r="AH15" s="43"/>
-      <c r="AI15" s="44"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="29"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
@@ -6357,15 +6232,15 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="60"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="45"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="V16" s="63"/>
+      <c r="V16" s="48"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
@@ -6373,12 +6248,12 @@
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
-      <c r="AD16" s="66"/>
+      <c r="AD16" s="51"/>
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
-      <c r="AH16" s="43"/>
-      <c r="AI16" s="44"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="29"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
@@ -6396,15 +6271,15 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="60"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="45"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="V17" s="63"/>
+      <c r="V17" s="48"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
@@ -6412,12 +6287,12 @@
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="11"/>
-      <c r="AD17" s="66"/>
+      <c r="AD17" s="51"/>
       <c r="AE17" s="11"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
-      <c r="AH17" s="43"/>
-      <c r="AI17" s="44"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="29"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
@@ -6435,15 +6310,15 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="60"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="45"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="V18" s="63"/>
+      <c r="V18" s="48"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
@@ -6451,12 +6326,12 @@
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
-      <c r="AD18" s="66"/>
+      <c r="AD18" s="51"/>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
-      <c r="AH18" s="43"/>
-      <c r="AI18" s="44"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="29"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
@@ -6474,15 +6349,15 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="60"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="45"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
-      <c r="V19" s="63"/>
+      <c r="V19" s="48"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
@@ -6490,12 +6365,12 @@
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
-      <c r="AD19" s="66"/>
+      <c r="AD19" s="51"/>
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
-      <c r="AH19" s="43"/>
-      <c r="AI19" s="44"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="29"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
@@ -6513,15 +6388,15 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="60"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="45"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="V20" s="63"/>
+      <c r="V20" s="48"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
@@ -6529,12 +6404,12 @@
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
-      <c r="AD20" s="66"/>
+      <c r="AD20" s="51"/>
       <c r="AE20" s="11"/>
       <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
-      <c r="AH20" s="43"/>
-      <c r="AI20" s="44"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="29"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
@@ -6550,15 +6425,15 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="60"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="45"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
-      <c r="V21" s="63"/>
+      <c r="V21" s="48"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
@@ -6566,16 +6441,16 @@
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
       <c r="AC21" s="11"/>
-      <c r="AD21" s="66"/>
+      <c r="AD21" s="51"/>
       <c r="AE21" s="11"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="11"/>
-      <c r="AH21" s="43"/>
-      <c r="AI21" s="44"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="29"/>
     </row>
     <row r="22" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6589,15 +6464,15 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="60"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="45"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="V22" s="63"/>
+      <c r="V22" s="48"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
@@ -6605,12 +6480,12 @@
       <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
       <c r="AC22" s="11"/>
-      <c r="AD22" s="66"/>
+      <c r="AD22" s="51"/>
       <c r="AE22" s="11"/>
       <c r="AF22" s="11"/>
       <c r="AG22" s="11"/>
-      <c r="AH22" s="43"/>
-      <c r="AI22" s="44"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="29"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
@@ -6628,15 +6503,15 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="60"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="45"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="V23" s="63"/>
+      <c r="V23" s="48"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
@@ -6644,12 +6519,12 @@
       <c r="AA23" s="11"/>
       <c r="AB23" s="11"/>
       <c r="AC23" s="11"/>
-      <c r="AD23" s="66"/>
+      <c r="AD23" s="51"/>
       <c r="AE23" s="11"/>
       <c r="AF23" s="11"/>
       <c r="AG23" s="11"/>
-      <c r="AH23" s="43"/>
-      <c r="AI23" s="44"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="29"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
@@ -6667,15 +6542,15 @@
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="60"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="45"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="63"/>
+      <c r="V24" s="48"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
@@ -6683,12 +6558,12 @@
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
-      <c r="AD24" s="66"/>
+      <c r="AD24" s="51"/>
       <c r="AE24" s="11"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="11"/>
-      <c r="AH24" s="43"/>
-      <c r="AI24" s="44"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="29"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
@@ -6706,15 +6581,15 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="60"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="45"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-      <c r="V25" s="63"/>
+      <c r="V25" s="48"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
@@ -6722,12 +6597,12 @@
       <c r="AA25" s="11"/>
       <c r="AB25" s="11"/>
       <c r="AC25" s="11"/>
-      <c r="AD25" s="66"/>
+      <c r="AD25" s="51"/>
       <c r="AE25" s="11"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="11"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="44"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="29"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
@@ -6745,15 +6620,15 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="60"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="45"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
-      <c r="V26" s="63"/>
+      <c r="V26" s="48"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
@@ -6761,12 +6636,12 @@
       <c r="AA26" s="11"/>
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
-      <c r="AD26" s="66"/>
+      <c r="AD26" s="51"/>
       <c r="AE26" s="11"/>
       <c r="AF26" s="11"/>
       <c r="AG26" s="11"/>
-      <c r="AH26" s="43"/>
-      <c r="AI26" s="44"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="29"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
@@ -6784,15 +6659,15 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="60"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="45"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
-      <c r="V27" s="63"/>
+      <c r="V27" s="48"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
@@ -6800,12 +6675,12 @@
       <c r="AA27" s="11"/>
       <c r="AB27" s="11"/>
       <c r="AC27" s="11"/>
-      <c r="AD27" s="66"/>
+      <c r="AD27" s="51"/>
       <c r="AE27" s="11"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="11"/>
-      <c r="AH27" s="43"/>
-      <c r="AI27" s="44"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="29"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
@@ -6823,15 +6698,15 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="60"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="45"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
-      <c r="V28" s="63"/>
+      <c r="V28" s="48"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
@@ -6839,12 +6714,12 @@
       <c r="AA28" s="11"/>
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
-      <c r="AD28" s="66"/>
+      <c r="AD28" s="51"/>
       <c r="AE28" s="11"/>
       <c r="AF28" s="11"/>
       <c r="AG28" s="11"/>
-      <c r="AH28" s="43"/>
-      <c r="AI28" s="44"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="29"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
@@ -6862,15 +6737,15 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="60"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="45"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
-      <c r="V29" s="63"/>
+      <c r="V29" s="48"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
@@ -6878,12 +6753,12 @@
       <c r="AA29" s="11"/>
       <c r="AB29" s="11"/>
       <c r="AC29" s="11"/>
-      <c r="AD29" s="66"/>
+      <c r="AD29" s="51"/>
       <c r="AE29" s="11"/>
       <c r="AF29" s="11"/>
       <c r="AG29" s="11"/>
-      <c r="AH29" s="43"/>
-      <c r="AI29" s="44"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="29"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
@@ -6899,15 +6774,15 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="60"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="45"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
-      <c r="V30" s="63"/>
+      <c r="V30" s="48"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
@@ -6915,16 +6790,16 @@
       <c r="AA30" s="11"/>
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
-      <c r="AD30" s="66"/>
+      <c r="AD30" s="51"/>
       <c r="AE30" s="11"/>
       <c r="AF30" s="11"/>
       <c r="AG30" s="11"/>
-      <c r="AH30" s="43"/>
-      <c r="AI30" s="44"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="29"/>
     </row>
     <row r="31" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6938,15 +6813,15 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="60"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="45"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
-      <c r="V31" s="63"/>
+      <c r="V31" s="48"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
@@ -6954,12 +6829,12 @@
       <c r="AA31" s="11"/>
       <c r="AB31" s="11"/>
       <c r="AC31" s="11"/>
-      <c r="AD31" s="66"/>
+      <c r="AD31" s="51"/>
       <c r="AE31" s="11"/>
       <c r="AF31" s="11"/>
       <c r="AG31" s="11"/>
-      <c r="AH31" s="43"/>
-      <c r="AI31" s="44"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="29"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
@@ -6977,15 +6852,15 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="60"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="45"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
-      <c r="V32" s="63"/>
+      <c r="V32" s="48"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
@@ -6993,12 +6868,12 @@
       <c r="AA32" s="11"/>
       <c r="AB32" s="11"/>
       <c r="AC32" s="11"/>
-      <c r="AD32" s="66"/>
+      <c r="AD32" s="51"/>
       <c r="AE32" s="11"/>
       <c r="AF32" s="11"/>
       <c r="AG32" s="11"/>
-      <c r="AH32" s="43"/>
-      <c r="AI32" s="44"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="29"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
@@ -7016,15 +6891,15 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="60"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="45"/>
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
-      <c r="V33" s="63"/>
+      <c r="V33" s="48"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
@@ -7032,12 +6907,12 @@
       <c r="AA33" s="11"/>
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
-      <c r="AD33" s="66"/>
+      <c r="AD33" s="51"/>
       <c r="AE33" s="11"/>
       <c r="AF33" s="11"/>
       <c r="AG33" s="11"/>
-      <c r="AH33" s="43"/>
-      <c r="AI33" s="44"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="29"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
@@ -7055,15 +6930,15 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="60"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="45"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
-      <c r="V34" s="63"/>
+      <c r="V34" s="48"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
@@ -7071,12 +6946,12 @@
       <c r="AA34" s="11"/>
       <c r="AB34" s="11"/>
       <c r="AC34" s="11"/>
-      <c r="AD34" s="66"/>
+      <c r="AD34" s="51"/>
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
       <c r="AG34" s="11"/>
-      <c r="AH34" s="43"/>
-      <c r="AI34" s="44"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="29"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
@@ -7094,15 +6969,15 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="60"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="45"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
-      <c r="V35" s="63"/>
+      <c r="V35" s="48"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
@@ -7110,12 +6985,12 @@
       <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
       <c r="AC35" s="11"/>
-      <c r="AD35" s="66"/>
+      <c r="AD35" s="51"/>
       <c r="AE35" s="11"/>
       <c r="AF35" s="11"/>
       <c r="AG35" s="11"/>
-      <c r="AH35" s="43"/>
-      <c r="AI35" s="44"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="29"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
@@ -7133,15 +7008,15 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="60"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="45"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
-      <c r="V36" s="63"/>
+      <c r="V36" s="48"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
@@ -7149,12 +7024,12 @@
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
-      <c r="AD36" s="66"/>
+      <c r="AD36" s="51"/>
       <c r="AE36" s="11"/>
       <c r="AF36" s="11"/>
       <c r="AG36" s="11"/>
-      <c r="AH36" s="43"/>
-      <c r="AI36" s="44"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="29"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
@@ -7172,15 +7047,15 @@
       <c r="K37" s="24"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="60"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="45"/>
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
-      <c r="V37" s="63"/>
+      <c r="V37" s="48"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
@@ -7188,12 +7063,12 @@
       <c r="AA37" s="11"/>
       <c r="AB37" s="11"/>
       <c r="AC37" s="11"/>
-      <c r="AD37" s="66"/>
+      <c r="AD37" s="51"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="11"/>
       <c r="AG37" s="11"/>
-      <c r="AH37" s="43"/>
-      <c r="AI37" s="44"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="29"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
@@ -7211,15 +7086,15 @@
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="60"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="45"/>
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
-      <c r="V38" s="63"/>
+      <c r="V38" s="48"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
@@ -7227,12 +7102,12 @@
       <c r="AA38" s="11"/>
       <c r="AB38" s="11"/>
       <c r="AC38" s="11"/>
-      <c r="AD38" s="66"/>
+      <c r="AD38" s="51"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="11"/>
       <c r="AG38" s="11"/>
-      <c r="AH38" s="43"/>
-      <c r="AI38" s="44"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="29"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
@@ -7248,15 +7123,15 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="60"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="45"/>
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
-      <c r="V39" s="63"/>
+      <c r="V39" s="48"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
@@ -7264,16 +7139,16 @@
       <c r="AA39" s="11"/>
       <c r="AB39" s="11"/>
       <c r="AC39" s="11"/>
-      <c r="AD39" s="66"/>
+      <c r="AD39" s="51"/>
       <c r="AE39" s="11"/>
       <c r="AF39" s="11"/>
       <c r="AG39" s="11"/>
-      <c r="AH39" s="43"/>
-      <c r="AI39" s="44"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="29"/>
     </row>
     <row r="40" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -7287,15 +7162,15 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="60"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="45"/>
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
-      <c r="V40" s="63"/>
+      <c r="V40" s="48"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
@@ -7303,12 +7178,12 @@
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
       <c r="AC40" s="11"/>
-      <c r="AD40" s="66"/>
+      <c r="AD40" s="51"/>
       <c r="AE40" s="11"/>
       <c r="AF40" s="11"/>
       <c r="AG40" s="11"/>
-      <c r="AH40" s="43"/>
-      <c r="AI40" s="44"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="29"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
@@ -7326,15 +7201,15 @@
       <c r="K41" s="11"/>
       <c r="L41" s="24"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="60"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="45"/>
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
-      <c r="V41" s="63"/>
+      <c r="V41" s="48"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
@@ -7342,16 +7217,16 @@
       <c r="AA41" s="11"/>
       <c r="AB41" s="11"/>
       <c r="AC41" s="11"/>
-      <c r="AD41" s="66"/>
+      <c r="AD41" s="51"/>
       <c r="AE41" s="11"/>
       <c r="AF41" s="11"/>
       <c r="AG41" s="11"/>
-      <c r="AH41" s="43"/>
-      <c r="AI41" s="44"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="29"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -7365,15 +7240,15 @@
       <c r="K42" s="11"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="60"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="45"/>
       <c r="T42" s="24"/>
       <c r="U42" s="11"/>
-      <c r="V42" s="63"/>
+      <c r="V42" s="48"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
@@ -7381,16 +7256,16 @@
       <c r="AA42" s="11"/>
       <c r="AB42" s="11"/>
       <c r="AC42" s="11"/>
-      <c r="AD42" s="66"/>
+      <c r="AD42" s="51"/>
       <c r="AE42" s="11"/>
       <c r="AF42" s="11"/>
       <c r="AG42" s="11"/>
-      <c r="AH42" s="43"/>
-      <c r="AI42" s="44"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="29"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -7404,15 +7279,15 @@
       <c r="K43" s="11"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="60"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="45"/>
       <c r="T43" s="24"/>
       <c r="U43" s="11"/>
-      <c r="V43" s="63"/>
+      <c r="V43" s="48"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
@@ -7420,12 +7295,12 @@
       <c r="AA43" s="11"/>
       <c r="AB43" s="11"/>
       <c r="AC43" s="11"/>
-      <c r="AD43" s="66"/>
+      <c r="AD43" s="51"/>
       <c r="AE43" s="11"/>
       <c r="AF43" s="11"/>
       <c r="AG43" s="11"/>
-      <c r="AH43" s="43"/>
-      <c r="AI43" s="44"/>
+      <c r="AH43" s="28"/>
+      <c r="AI43" s="29"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
@@ -7443,15 +7318,15 @@
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="60"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="45"/>
       <c r="T44" s="24"/>
       <c r="U44" s="24"/>
-      <c r="V44" s="63"/>
+      <c r="V44" s="48"/>
       <c r="W44" s="24"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
@@ -7459,12 +7334,12 @@
       <c r="AA44" s="11"/>
       <c r="AB44" s="11"/>
       <c r="AC44" s="11"/>
-      <c r="AD44" s="66"/>
+      <c r="AD44" s="51"/>
       <c r="AE44" s="11"/>
       <c r="AF44" s="11"/>
       <c r="AG44" s="11"/>
-      <c r="AH44" s="43"/>
-      <c r="AI44" s="44"/>
+      <c r="AH44" s="28"/>
+      <c r="AI44" s="29"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
@@ -7482,15 +7357,15 @@
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="60"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="45"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
-      <c r="V45" s="63"/>
+      <c r="V45" s="48"/>
       <c r="W45" s="24"/>
       <c r="X45" s="24"/>
       <c r="Y45" s="11"/>
@@ -7498,12 +7373,12 @@
       <c r="AA45" s="11"/>
       <c r="AB45" s="11"/>
       <c r="AC45" s="11"/>
-      <c r="AD45" s="66"/>
+      <c r="AD45" s="51"/>
       <c r="AE45" s="11"/>
       <c r="AF45" s="11"/>
       <c r="AG45" s="11"/>
-      <c r="AH45" s="43"/>
-      <c r="AI45" s="44"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="29"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
@@ -7521,15 +7396,15 @@
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="60"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="45"/>
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
-      <c r="V46" s="63"/>
+      <c r="V46" s="48"/>
       <c r="W46" s="11"/>
       <c r="X46" s="24"/>
       <c r="Y46" s="24"/>
@@ -7537,12 +7412,12 @@
       <c r="AA46" s="11"/>
       <c r="AB46" s="11"/>
       <c r="AC46" s="11"/>
-      <c r="AD46" s="66"/>
+      <c r="AD46" s="51"/>
       <c r="AE46" s="11"/>
       <c r="AF46" s="11"/>
       <c r="AG46" s="11"/>
-      <c r="AH46" s="43"/>
-      <c r="AI46" s="44"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="29"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
@@ -7560,15 +7435,15 @@
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="60"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="45"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
-      <c r="V47" s="63"/>
+      <c r="V47" s="48"/>
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="24"/>
@@ -7576,12 +7451,12 @@
       <c r="AA47" s="11"/>
       <c r="AB47" s="11"/>
       <c r="AC47" s="11"/>
-      <c r="AD47" s="66"/>
+      <c r="AD47" s="51"/>
       <c r="AE47" s="11"/>
       <c r="AF47" s="11"/>
       <c r="AG47" s="11"/>
-      <c r="AH47" s="43"/>
-      <c r="AI47" s="44"/>
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="29"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
@@ -7597,15 +7472,15 @@
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="60"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="45"/>
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
-      <c r="V48" s="63"/>
+      <c r="V48" s="48"/>
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
@@ -7613,16 +7488,16 @@
       <c r="AA48" s="11"/>
       <c r="AB48" s="11"/>
       <c r="AC48" s="11"/>
-      <c r="AD48" s="66"/>
+      <c r="AD48" s="51"/>
       <c r="AE48" s="11"/>
       <c r="AF48" s="11"/>
       <c r="AG48" s="11"/>
-      <c r="AH48" s="43"/>
-      <c r="AI48" s="44"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="29"/>
     </row>
     <row r="49" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -7636,15 +7511,15 @@
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="60"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="45"/>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
-      <c r="V49" s="63"/>
+      <c r="V49" s="48"/>
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
@@ -7652,12 +7527,12 @@
       <c r="AA49" s="11"/>
       <c r="AB49" s="11"/>
       <c r="AC49" s="11"/>
-      <c r="AD49" s="66"/>
+      <c r="AD49" s="51"/>
       <c r="AE49" s="11"/>
       <c r="AF49" s="11"/>
       <c r="AG49" s="11"/>
-      <c r="AH49" s="43"/>
-      <c r="AI49" s="44"/>
+      <c r="AH49" s="28"/>
+      <c r="AI49" s="29"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
@@ -7675,15 +7550,15 @@
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="60"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="45"/>
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
-      <c r="V50" s="63"/>
+      <c r="V50" s="48"/>
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
       <c r="Y50" s="24"/>
@@ -7691,16 +7566,16 @@
       <c r="AA50" s="24"/>
       <c r="AB50" s="11"/>
       <c r="AC50" s="11"/>
-      <c r="AD50" s="66"/>
+      <c r="AD50" s="51"/>
       <c r="AE50" s="11"/>
       <c r="AF50" s="11"/>
       <c r="AG50" s="11"/>
-      <c r="AH50" s="43"/>
-      <c r="AI50" s="44"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="29"/>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -7714,15 +7589,15 @@
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="60"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="45"/>
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
-      <c r="V51" s="63"/>
+      <c r="V51" s="48"/>
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="24"/>
@@ -7730,16 +7605,16 @@
       <c r="AA51" s="24"/>
       <c r="AB51" s="24"/>
       <c r="AC51" s="11"/>
-      <c r="AD51" s="66"/>
+      <c r="AD51" s="51"/>
       <c r="AE51" s="11"/>
       <c r="AF51" s="11"/>
       <c r="AG51" s="11"/>
-      <c r="AH51" s="43"/>
-      <c r="AI51" s="44"/>
+      <c r="AH51" s="28"/>
+      <c r="AI51" s="29"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -7753,15 +7628,15 @@
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="60"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="45"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
-      <c r="V52" s="63"/>
+      <c r="V52" s="48"/>
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="24"/>
@@ -7769,16 +7644,16 @@
       <c r="AA52" s="24"/>
       <c r="AB52" s="24"/>
       <c r="AC52" s="11"/>
-      <c r="AD52" s="66"/>
+      <c r="AD52" s="51"/>
       <c r="AE52" s="11"/>
       <c r="AF52" s="11"/>
       <c r="AG52" s="11"/>
-      <c r="AH52" s="43"/>
-      <c r="AI52" s="44"/>
+      <c r="AH52" s="28"/>
+      <c r="AI52" s="29"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -7792,32 +7667,32 @@
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="60"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="45"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
-      <c r="V53" s="63"/>
+      <c r="V53" s="48"/>
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
-      <c r="Y53" s="24"/>
-      <c r="Z53" s="24"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
       <c r="AA53" s="24"/>
       <c r="AB53" s="24"/>
       <c r="AC53" s="11"/>
-      <c r="AD53" s="66"/>
+      <c r="AD53" s="51"/>
       <c r="AE53" s="11"/>
       <c r="AF53" s="11"/>
       <c r="AG53" s="11"/>
-      <c r="AH53" s="43"/>
-      <c r="AI53" s="44"/>
+      <c r="AH53" s="28"/>
+      <c r="AI53" s="29"/>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -7831,32 +7706,32 @@
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="51"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="60"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="45"/>
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
-      <c r="V54" s="63"/>
+      <c r="V54" s="48"/>
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
       <c r="AA54" s="24"/>
       <c r="AB54" s="24"/>
-      <c r="AC54" s="11"/>
-      <c r="AD54" s="66"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="51"/>
       <c r="AE54" s="11"/>
       <c r="AF54" s="11"/>
       <c r="AG54" s="11"/>
-      <c r="AH54" s="43"/>
-      <c r="AI54" s="44"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="29"/>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -7870,33 +7745,31 @@
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="51"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="60"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="45"/>
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
-      <c r="V55" s="63"/>
+      <c r="V55" s="48"/>
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
-      <c r="AA55" s="24"/>
+      <c r="AA55" s="11"/>
       <c r="AB55" s="24"/>
       <c r="AC55" s="24"/>
-      <c r="AD55" s="66"/>
+      <c r="AD55" s="51"/>
       <c r="AE55" s="11"/>
       <c r="AF55" s="11"/>
       <c r="AG55" s="11"/>
-      <c r="AH55" s="43"/>
-      <c r="AI55" s="44"/>
+      <c r="AH55" s="28"/>
+      <c r="AI55" s="29"/>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -7909,31 +7782,33 @@
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="60"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="45"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
-      <c r="V56" s="63"/>
+      <c r="V56" s="48"/>
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
       <c r="AA56" s="11"/>
-      <c r="AB56" s="24"/>
-      <c r="AC56" s="24"/>
-      <c r="AD56" s="66"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="51"/>
       <c r="AE56" s="11"/>
       <c r="AF56" s="11"/>
       <c r="AG56" s="11"/>
-      <c r="AH56" s="43"/>
-      <c r="AI56" s="44"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="29"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
+    <row r="57" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -7946,15 +7821,15 @@
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="51"/>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="60"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="45"/>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
-      <c r="V57" s="63"/>
+      <c r="V57" s="48"/>
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
@@ -7962,16 +7837,16 @@
       <c r="AA57" s="11"/>
       <c r="AB57" s="11"/>
       <c r="AC57" s="11"/>
-      <c r="AD57" s="66"/>
+      <c r="AD57" s="51"/>
       <c r="AE57" s="11"/>
       <c r="AF57" s="11"/>
       <c r="AG57" s="11"/>
-      <c r="AH57" s="43"/>
-      <c r="AI57" s="44"/>
+      <c r="AH57" s="28"/>
+      <c r="AI57" s="29"/>
     </row>
-    <row r="58" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
-        <v>79</v>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -7985,32 +7860,32 @@
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="51"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="56"/>
-      <c r="S58" s="60"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="45"/>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
-      <c r="V58" s="63"/>
+      <c r="V58" s="48"/>
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="66"/>
+      <c r="AA58" s="24"/>
+      <c r="AB58" s="24"/>
+      <c r="AC58" s="24"/>
+      <c r="AD58" s="51"/>
       <c r="AE58" s="11"/>
       <c r="AF58" s="11"/>
       <c r="AG58" s="11"/>
-      <c r="AH58" s="43"/>
-      <c r="AI58" s="44"/>
+      <c r="AH58" s="28"/>
+      <c r="AI58" s="29"/>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -8024,32 +7899,32 @@
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="51"/>
-      <c r="P59" s="44"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="60"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="45"/>
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
-      <c r="V59" s="63"/>
+      <c r="V59" s="48"/>
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
-      <c r="AA59" s="24"/>
-      <c r="AB59" s="24"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
       <c r="AC59" s="24"/>
-      <c r="AD59" s="66"/>
+      <c r="AD59" s="51"/>
       <c r="AE59" s="11"/>
       <c r="AF59" s="11"/>
       <c r="AG59" s="11"/>
-      <c r="AH59" s="43"/>
-      <c r="AI59" s="44"/>
+      <c r="AH59" s="28"/>
+      <c r="AI59" s="29"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -8063,15 +7938,15 @@
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="51"/>
-      <c r="P60" s="44"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="56"/>
-      <c r="S60" s="60"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="45"/>
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
-      <c r="V60" s="63"/>
+      <c r="V60" s="48"/>
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
@@ -8079,16 +7954,16 @@
       <c r="AA60" s="11"/>
       <c r="AB60" s="11"/>
       <c r="AC60" s="24"/>
-      <c r="AD60" s="66"/>
-      <c r="AE60" s="11"/>
-      <c r="AF60" s="11"/>
-      <c r="AG60" s="11"/>
-      <c r="AH60" s="43"/>
-      <c r="AI60" s="44"/>
+      <c r="AD60" s="51"/>
+      <c r="AE60" s="24"/>
+      <c r="AF60" s="24"/>
+      <c r="AG60" s="24"/>
+      <c r="AH60" s="28"/>
+      <c r="AI60" s="29"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -8102,32 +7977,32 @@
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="51"/>
-      <c r="P61" s="44"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="56"/>
-      <c r="S61" s="60"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="41"/>
+      <c r="S61" s="45"/>
       <c r="T61" s="11"/>
       <c r="U61" s="11"/>
-      <c r="V61" s="63"/>
+      <c r="V61" s="48"/>
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
       <c r="Z61" s="11"/>
       <c r="AA61" s="11"/>
       <c r="AB61" s="11"/>
-      <c r="AC61" s="24"/>
-      <c r="AD61" s="66"/>
-      <c r="AE61" s="24"/>
-      <c r="AF61" s="24"/>
+      <c r="AC61" s="11"/>
+      <c r="AD61" s="51"/>
+      <c r="AE61" s="11"/>
+      <c r="AF61" s="11"/>
       <c r="AG61" s="24"/>
-      <c r="AH61" s="43"/>
-      <c r="AI61" s="44"/>
+      <c r="AH61" s="28"/>
+      <c r="AI61" s="29"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -8141,15 +8016,15 @@
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="51"/>
-      <c r="P62" s="44"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="56"/>
-      <c r="S62" s="60"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="45"/>
       <c r="T62" s="11"/>
       <c r="U62" s="11"/>
-      <c r="V62" s="63"/>
+      <c r="V62" s="48"/>
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
@@ -8157,16 +8032,16 @@
       <c r="AA62" s="11"/>
       <c r="AB62" s="11"/>
       <c r="AC62" s="11"/>
-      <c r="AD62" s="66"/>
+      <c r="AD62" s="51"/>
       <c r="AE62" s="11"/>
       <c r="AF62" s="11"/>
       <c r="AG62" s="24"/>
-      <c r="AH62" s="43"/>
-      <c r="AI62" s="44"/>
+      <c r="AH62" s="28"/>
+      <c r="AI62" s="29"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -8180,15 +8055,15 @@
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="51"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="56"/>
-      <c r="S63" s="60"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="41"/>
+      <c r="S63" s="45"/>
       <c r="T63" s="11"/>
       <c r="U63" s="11"/>
-      <c r="V63" s="63"/>
+      <c r="V63" s="48"/>
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
@@ -8196,16 +8071,16 @@
       <c r="AA63" s="11"/>
       <c r="AB63" s="11"/>
       <c r="AC63" s="11"/>
-      <c r="AD63" s="66"/>
+      <c r="AD63" s="51"/>
       <c r="AE63" s="11"/>
       <c r="AF63" s="11"/>
-      <c r="AG63" s="24"/>
-      <c r="AH63" s="43"/>
-      <c r="AI63" s="44"/>
+      <c r="AG63" s="11"/>
+      <c r="AH63" s="28"/>
+      <c r="AI63" s="29"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -8219,15 +8094,15 @@
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="51"/>
-      <c r="P64" s="44"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="56"/>
-      <c r="S64" s="60"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="46"/>
       <c r="T64" s="11"/>
       <c r="U64" s="11"/>
-      <c r="V64" s="63"/>
+      <c r="V64" s="49"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
@@ -8235,63 +8110,15 @@
       <c r="AA64" s="11"/>
       <c r="AB64" s="11"/>
       <c r="AC64" s="11"/>
-      <c r="AD64" s="66"/>
+      <c r="AD64" s="52"/>
       <c r="AE64" s="11"/>
       <c r="AF64" s="11"/>
       <c r="AG64" s="11"/>
-      <c r="AH64" s="43"/>
-      <c r="AI64" s="44"/>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="45"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="57"/>
-      <c r="R65" s="58"/>
-      <c r="S65" s="61"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="64"/>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="11"/>
-      <c r="Z65" s="11"/>
-      <c r="AA65" s="11"/>
-      <c r="AB65" s="11"/>
-      <c r="AC65" s="11"/>
-      <c r="AD65" s="67"/>
-      <c r="AE65" s="11"/>
-      <c r="AF65" s="11"/>
-      <c r="AG65" s="11"/>
-      <c r="AH65" s="45"/>
-      <c r="AI65" s="46"/>
+      <c r="AH64" s="30"/>
+      <c r="AI64" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AH9:AI65"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="N9:P65"/>
-    <mergeCell ref="Q9:R65"/>
-    <mergeCell ref="S9:S65"/>
-    <mergeCell ref="V9:V65"/>
-    <mergeCell ref="AD9:AD65"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="Y7:AB7"/>
@@ -8305,6 +8132,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="P7:T7"/>
+    <mergeCell ref="AH9:AI64"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="N9:P64"/>
+    <mergeCell ref="Q9:R64"/>
+    <mergeCell ref="S9:S64"/>
+    <mergeCell ref="V9:V64"/>
+    <mergeCell ref="AD9:AD64"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AH6:AI6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/links and documents/gantt chart/Gantt Chart.xlsx
+++ b/links and documents/gantt chart/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nottingham\FYP\Final-Year-Project-Nottingham\links and documents\gantt chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06193B0-4884-49FE-AA04-C823CD576399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CE2B56-498D-4823-94E8-3FDEFAA27E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{1D831E61-2840-456F-A9B0-965DD649A84E}"/>
   </bookViews>
@@ -410,15 +410,9 @@
     <t>Developing User Interface to Monitor Heart Disease and Data Collected from Sensor (Optional)</t>
   </si>
   <si>
-    <t>Deploying Heart Disease Prediction Model Developed onto Cloud Computer</t>
-  </si>
-  <si>
     <t>Coding Program to Develop Emotion Recognition Model</t>
   </si>
   <si>
-    <t>Coding Program to Develop Heart Disease Prediction Model</t>
-  </si>
-  <si>
     <t>Project Planning</t>
   </si>
   <si>
@@ -435,6 +429,12 @@
   </si>
   <si>
     <t>Deploying Emotion Recognition Model Developed onto Edge Computer</t>
+  </si>
+  <si>
+    <t>Coding Program to Develop Heart Disease Prediction Model (Optional)</t>
+  </si>
+  <si>
+    <t>Deploying Heart Disease Prediction Model Developed onto Cloud Computer (Optional)</t>
   </si>
 </sst>
 </file>
@@ -864,6 +864,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -945,52 +990,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5553,7 +5553,7 @@
   <dimension ref="A1:AI64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5717,117 +5717,117 @@
       <c r="AC4" s="22"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="54" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="67" t="s">
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="67"/>
+      <c r="R6" s="38"/>
       <c r="S6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="61"/>
-      <c r="U6" s="62"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="32"/>
       <c r="V6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W6" s="63" t="s">
+      <c r="W6" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="65"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="35"/>
       <c r="AD6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="54" t="s">
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AI6" s="55"/>
+      <c r="AI6" s="68"/>
     </row>
     <row r="7" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68" t="s">
+      <c r="M7" s="39"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="57" t="s">
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="58"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="57" t="s">
+      <c r="V7" s="28"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="57" t="s">
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="53" t="s">
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AI7" s="53"/>
+      <c r="AI7" s="39"/>
     </row>
     <row r="8" spans="1:35" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="9" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -5947,21 +5947,21 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="38" t="s">
+      <c r="O9" s="50"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="44" t="s">
+      <c r="R9" s="54"/>
+      <c r="S9" s="59" t="s">
         <v>15</v>
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="47" t="s">
+      <c r="V9" s="62" t="s">
         <v>17</v>
       </c>
       <c r="W9" s="11"/>
@@ -5971,16 +5971,16 @@
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
-      <c r="AD9" s="50" t="s">
+      <c r="AD9" s="65" t="s">
         <v>20</v>
       </c>
       <c r="AE9" s="11"/>
       <c r="AF9" s="11"/>
       <c r="AG9" s="11"/>
-      <c r="AH9" s="26" t="s">
+      <c r="AH9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AI9" s="27"/>
+      <c r="AI9" s="42"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -5998,15 +5998,15 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="45"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="60"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="48"/>
+      <c r="V10" s="63"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
@@ -6014,12 +6014,12 @@
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
-      <c r="AD10" s="51"/>
+      <c r="AD10" s="66"/>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="29"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="44"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -6037,15 +6037,15 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="45"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="60"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="48"/>
+      <c r="V11" s="63"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
@@ -6053,12 +6053,12 @@
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
-      <c r="AD11" s="51"/>
+      <c r="AD11" s="66"/>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
       <c r="AG11" s="11"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="29"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="44"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -6076,15 +6076,15 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="45"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="60"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="48"/>
+      <c r="V12" s="63"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
@@ -6092,12 +6092,12 @@
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
-      <c r="AD12" s="51"/>
+      <c r="AD12" s="66"/>
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
       <c r="AG12" s="11"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="29"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="44"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -6115,15 +6115,15 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="45"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="60"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="48"/>
+      <c r="V13" s="63"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
@@ -6131,12 +6131,12 @@
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
-      <c r="AD13" s="51"/>
+      <c r="AD13" s="66"/>
       <c r="AE13" s="11"/>
       <c r="AF13" s="11"/>
       <c r="AG13" s="11"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="29"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="44"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
@@ -6154,15 +6154,15 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="45"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="60"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="48"/>
+      <c r="V14" s="63"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
@@ -6170,12 +6170,12 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
-      <c r="AD14" s="51"/>
+      <c r="AD14" s="66"/>
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="29"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="44"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
@@ -6193,15 +6193,15 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="45"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="60"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
-      <c r="V15" s="48"/>
+      <c r="V15" s="63"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
@@ -6209,12 +6209,12 @@
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
-      <c r="AD15" s="51"/>
+      <c r="AD15" s="66"/>
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="11"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="29"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="44"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
@@ -6232,15 +6232,15 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="45"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="60"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="V16" s="48"/>
+      <c r="V16" s="63"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
@@ -6248,12 +6248,12 @@
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
-      <c r="AD16" s="51"/>
+      <c r="AD16" s="66"/>
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="29"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="44"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
@@ -6271,15 +6271,15 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="45"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="60"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="V17" s="48"/>
+      <c r="V17" s="63"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
@@ -6287,12 +6287,12 @@
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="11"/>
-      <c r="AD17" s="51"/>
+      <c r="AD17" s="66"/>
       <c r="AE17" s="11"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="29"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="44"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
@@ -6310,15 +6310,15 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="45"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="60"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="V18" s="48"/>
+      <c r="V18" s="63"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
@@ -6326,12 +6326,12 @@
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
-      <c r="AD18" s="51"/>
+      <c r="AD18" s="66"/>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="29"/>
+      <c r="AH18" s="43"/>
+      <c r="AI18" s="44"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
@@ -6349,15 +6349,15 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="45"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="60"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
-      <c r="V19" s="48"/>
+      <c r="V19" s="63"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
@@ -6365,12 +6365,12 @@
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
-      <c r="AD19" s="51"/>
+      <c r="AD19" s="66"/>
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="29"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="44"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
@@ -6388,15 +6388,15 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="45"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="60"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="V20" s="48"/>
+      <c r="V20" s="63"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
@@ -6404,12 +6404,12 @@
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
-      <c r="AD20" s="51"/>
+      <c r="AD20" s="66"/>
       <c r="AE20" s="11"/>
       <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="29"/>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="44"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
@@ -6425,15 +6425,15 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="45"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="60"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
-      <c r="V21" s="48"/>
+      <c r="V21" s="63"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
@@ -6441,16 +6441,16 @@
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
       <c r="AC21" s="11"/>
-      <c r="AD21" s="51"/>
+      <c r="AD21" s="66"/>
       <c r="AE21" s="11"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="11"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="29"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="44"/>
     </row>
     <row r="22" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6464,15 +6464,15 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="45"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="60"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="V22" s="48"/>
+      <c r="V22" s="63"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
@@ -6480,12 +6480,12 @@
       <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
       <c r="AC22" s="11"/>
-      <c r="AD22" s="51"/>
+      <c r="AD22" s="66"/>
       <c r="AE22" s="11"/>
       <c r="AF22" s="11"/>
       <c r="AG22" s="11"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="29"/>
+      <c r="AH22" s="43"/>
+      <c r="AI22" s="44"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
@@ -6503,15 +6503,15 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="45"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="60"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="V23" s="48"/>
+      <c r="V23" s="63"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
@@ -6519,12 +6519,12 @@
       <c r="AA23" s="11"/>
       <c r="AB23" s="11"/>
       <c r="AC23" s="11"/>
-      <c r="AD23" s="51"/>
+      <c r="AD23" s="66"/>
       <c r="AE23" s="11"/>
       <c r="AF23" s="11"/>
       <c r="AG23" s="11"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="29"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="44"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
@@ -6542,15 +6542,15 @@
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="45"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="60"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="48"/>
+      <c r="V24" s="63"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
@@ -6558,12 +6558,12 @@
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
-      <c r="AD24" s="51"/>
+      <c r="AD24" s="66"/>
       <c r="AE24" s="11"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="11"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="29"/>
+      <c r="AH24" s="43"/>
+      <c r="AI24" s="44"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
@@ -6581,15 +6581,15 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="45"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="60"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-      <c r="V25" s="48"/>
+      <c r="V25" s="63"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
@@ -6597,12 +6597,12 @@
       <c r="AA25" s="11"/>
       <c r="AB25" s="11"/>
       <c r="AC25" s="11"/>
-      <c r="AD25" s="51"/>
+      <c r="AD25" s="66"/>
       <c r="AE25" s="11"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="11"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="29"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="44"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
@@ -6620,15 +6620,15 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="45"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="60"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
-      <c r="V26" s="48"/>
+      <c r="V26" s="63"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
@@ -6636,12 +6636,12 @@
       <c r="AA26" s="11"/>
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
-      <c r="AD26" s="51"/>
+      <c r="AD26" s="66"/>
       <c r="AE26" s="11"/>
       <c r="AF26" s="11"/>
       <c r="AG26" s="11"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="29"/>
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="44"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
@@ -6659,15 +6659,15 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="45"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="60"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
-      <c r="V27" s="48"/>
+      <c r="V27" s="63"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
@@ -6675,12 +6675,12 @@
       <c r="AA27" s="11"/>
       <c r="AB27" s="11"/>
       <c r="AC27" s="11"/>
-      <c r="AD27" s="51"/>
+      <c r="AD27" s="66"/>
       <c r="AE27" s="11"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="11"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="29"/>
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="44"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
@@ -6698,15 +6698,15 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="45"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="60"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
-      <c r="V28" s="48"/>
+      <c r="V28" s="63"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
@@ -6714,12 +6714,12 @@
       <c r="AA28" s="11"/>
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
-      <c r="AD28" s="51"/>
+      <c r="AD28" s="66"/>
       <c r="AE28" s="11"/>
       <c r="AF28" s="11"/>
       <c r="AG28" s="11"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="29"/>
+      <c r="AH28" s="43"/>
+      <c r="AI28" s="44"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
@@ -6737,15 +6737,15 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="45"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="60"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
-      <c r="V29" s="48"/>
+      <c r="V29" s="63"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
@@ -6753,12 +6753,12 @@
       <c r="AA29" s="11"/>
       <c r="AB29" s="11"/>
       <c r="AC29" s="11"/>
-      <c r="AD29" s="51"/>
+      <c r="AD29" s="66"/>
       <c r="AE29" s="11"/>
       <c r="AF29" s="11"/>
       <c r="AG29" s="11"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="29"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="44"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
@@ -6774,15 +6774,15 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="45"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="60"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
-      <c r="V30" s="48"/>
+      <c r="V30" s="63"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
@@ -6790,16 +6790,16 @@
       <c r="AA30" s="11"/>
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
-      <c r="AD30" s="51"/>
+      <c r="AD30" s="66"/>
       <c r="AE30" s="11"/>
       <c r="AF30" s="11"/>
       <c r="AG30" s="11"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="29"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="44"/>
     </row>
     <row r="31" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6813,15 +6813,15 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="45"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="60"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
-      <c r="V31" s="48"/>
+      <c r="V31" s="63"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
@@ -6829,12 +6829,12 @@
       <c r="AA31" s="11"/>
       <c r="AB31" s="11"/>
       <c r="AC31" s="11"/>
-      <c r="AD31" s="51"/>
+      <c r="AD31" s="66"/>
       <c r="AE31" s="11"/>
       <c r="AF31" s="11"/>
       <c r="AG31" s="11"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="29"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="44"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
@@ -6852,15 +6852,15 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="45"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="60"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
-      <c r="V32" s="48"/>
+      <c r="V32" s="63"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
@@ -6868,12 +6868,12 @@
       <c r="AA32" s="11"/>
       <c r="AB32" s="11"/>
       <c r="AC32" s="11"/>
-      <c r="AD32" s="51"/>
+      <c r="AD32" s="66"/>
       <c r="AE32" s="11"/>
       <c r="AF32" s="11"/>
       <c r="AG32" s="11"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="29"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="44"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
@@ -6891,15 +6891,15 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="45"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="60"/>
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
-      <c r="V33" s="48"/>
+      <c r="V33" s="63"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
@@ -6907,12 +6907,12 @@
       <c r="AA33" s="11"/>
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
-      <c r="AD33" s="51"/>
+      <c r="AD33" s="66"/>
       <c r="AE33" s="11"/>
       <c r="AF33" s="11"/>
       <c r="AG33" s="11"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="29"/>
+      <c r="AH33" s="43"/>
+      <c r="AI33" s="44"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
@@ -6930,15 +6930,15 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="45"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="60"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
-      <c r="V34" s="48"/>
+      <c r="V34" s="63"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
@@ -6946,12 +6946,12 @@
       <c r="AA34" s="11"/>
       <c r="AB34" s="11"/>
       <c r="AC34" s="11"/>
-      <c r="AD34" s="51"/>
+      <c r="AD34" s="66"/>
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
       <c r="AG34" s="11"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="29"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="44"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
@@ -6969,15 +6969,15 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="45"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="60"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
-      <c r="V35" s="48"/>
+      <c r="V35" s="63"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
@@ -6985,12 +6985,12 @@
       <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
       <c r="AC35" s="11"/>
-      <c r="AD35" s="51"/>
+      <c r="AD35" s="66"/>
       <c r="AE35" s="11"/>
       <c r="AF35" s="11"/>
       <c r="AG35" s="11"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="29"/>
+      <c r="AH35" s="43"/>
+      <c r="AI35" s="44"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
@@ -7008,15 +7008,15 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="45"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="60"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
-      <c r="V36" s="48"/>
+      <c r="V36" s="63"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
@@ -7024,12 +7024,12 @@
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
-      <c r="AD36" s="51"/>
+      <c r="AD36" s="66"/>
       <c r="AE36" s="11"/>
       <c r="AF36" s="11"/>
       <c r="AG36" s="11"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="29"/>
+      <c r="AH36" s="43"/>
+      <c r="AI36" s="44"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
@@ -7047,15 +7047,15 @@
       <c r="K37" s="24"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="45"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="60"/>
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
-      <c r="V37" s="48"/>
+      <c r="V37" s="63"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
@@ -7063,12 +7063,12 @@
       <c r="AA37" s="11"/>
       <c r="AB37" s="11"/>
       <c r="AC37" s="11"/>
-      <c r="AD37" s="51"/>
+      <c r="AD37" s="66"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="11"/>
       <c r="AG37" s="11"/>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="29"/>
+      <c r="AH37" s="43"/>
+      <c r="AI37" s="44"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
@@ -7086,15 +7086,15 @@
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="45"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="60"/>
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
-      <c r="V38" s="48"/>
+      <c r="V38" s="63"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
@@ -7102,12 +7102,12 @@
       <c r="AA38" s="11"/>
       <c r="AB38" s="11"/>
       <c r="AC38" s="11"/>
-      <c r="AD38" s="51"/>
+      <c r="AD38" s="66"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="11"/>
       <c r="AG38" s="11"/>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="29"/>
+      <c r="AH38" s="43"/>
+      <c r="AI38" s="44"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
@@ -7123,15 +7123,15 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="45"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="60"/>
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
-      <c r="V39" s="48"/>
+      <c r="V39" s="63"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
@@ -7139,16 +7139,16 @@
       <c r="AA39" s="11"/>
       <c r="AB39" s="11"/>
       <c r="AC39" s="11"/>
-      <c r="AD39" s="51"/>
+      <c r="AD39" s="66"/>
       <c r="AE39" s="11"/>
       <c r="AF39" s="11"/>
       <c r="AG39" s="11"/>
-      <c r="AH39" s="28"/>
-      <c r="AI39" s="29"/>
+      <c r="AH39" s="43"/>
+      <c r="AI39" s="44"/>
     </row>
     <row r="40" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -7162,15 +7162,15 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="45"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="60"/>
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
-      <c r="V40" s="48"/>
+      <c r="V40" s="63"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
@@ -7178,12 +7178,12 @@
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
       <c r="AC40" s="11"/>
-      <c r="AD40" s="51"/>
+      <c r="AD40" s="66"/>
       <c r="AE40" s="11"/>
       <c r="AF40" s="11"/>
       <c r="AG40" s="11"/>
-      <c r="AH40" s="28"/>
-      <c r="AI40" s="29"/>
+      <c r="AH40" s="43"/>
+      <c r="AI40" s="44"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
@@ -7201,15 +7201,15 @@
       <c r="K41" s="11"/>
       <c r="L41" s="24"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="45"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="60"/>
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
-      <c r="V41" s="48"/>
+      <c r="V41" s="63"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
@@ -7217,16 +7217,16 @@
       <c r="AA41" s="11"/>
       <c r="AB41" s="11"/>
       <c r="AC41" s="11"/>
-      <c r="AD41" s="51"/>
+      <c r="AD41" s="66"/>
       <c r="AE41" s="11"/>
       <c r="AF41" s="11"/>
       <c r="AG41" s="11"/>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="29"/>
+      <c r="AH41" s="43"/>
+      <c r="AI41" s="44"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -7240,15 +7240,15 @@
       <c r="K42" s="11"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="45"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="60"/>
       <c r="T42" s="24"/>
       <c r="U42" s="11"/>
-      <c r="V42" s="48"/>
+      <c r="V42" s="63"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
@@ -7256,16 +7256,16 @@
       <c r="AA42" s="11"/>
       <c r="AB42" s="11"/>
       <c r="AC42" s="11"/>
-      <c r="AD42" s="51"/>
+      <c r="AD42" s="66"/>
       <c r="AE42" s="11"/>
       <c r="AF42" s="11"/>
       <c r="AG42" s="11"/>
-      <c r="AH42" s="28"/>
-      <c r="AI42" s="29"/>
+      <c r="AH42" s="43"/>
+      <c r="AI42" s="44"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -7279,15 +7279,15 @@
       <c r="K43" s="11"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="45"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="60"/>
       <c r="T43" s="24"/>
       <c r="U43" s="11"/>
-      <c r="V43" s="48"/>
+      <c r="V43" s="63"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
@@ -7295,12 +7295,12 @@
       <c r="AA43" s="11"/>
       <c r="AB43" s="11"/>
       <c r="AC43" s="11"/>
-      <c r="AD43" s="51"/>
+      <c r="AD43" s="66"/>
       <c r="AE43" s="11"/>
       <c r="AF43" s="11"/>
       <c r="AG43" s="11"/>
-      <c r="AH43" s="28"/>
-      <c r="AI43" s="29"/>
+      <c r="AH43" s="43"/>
+      <c r="AI43" s="44"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
@@ -7318,15 +7318,15 @@
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="45"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="60"/>
       <c r="T44" s="24"/>
       <c r="U44" s="24"/>
-      <c r="V44" s="48"/>
+      <c r="V44" s="63"/>
       <c r="W44" s="24"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
@@ -7334,12 +7334,12 @@
       <c r="AA44" s="11"/>
       <c r="AB44" s="11"/>
       <c r="AC44" s="11"/>
-      <c r="AD44" s="51"/>
+      <c r="AD44" s="66"/>
       <c r="AE44" s="11"/>
       <c r="AF44" s="11"/>
       <c r="AG44" s="11"/>
-      <c r="AH44" s="28"/>
-      <c r="AI44" s="29"/>
+      <c r="AH44" s="43"/>
+      <c r="AI44" s="44"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
@@ -7357,15 +7357,15 @@
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="45"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="60"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
-      <c r="V45" s="48"/>
+      <c r="V45" s="63"/>
       <c r="W45" s="24"/>
       <c r="X45" s="24"/>
       <c r="Y45" s="11"/>
@@ -7373,12 +7373,12 @@
       <c r="AA45" s="11"/>
       <c r="AB45" s="11"/>
       <c r="AC45" s="11"/>
-      <c r="AD45" s="51"/>
+      <c r="AD45" s="66"/>
       <c r="AE45" s="11"/>
       <c r="AF45" s="11"/>
       <c r="AG45" s="11"/>
-      <c r="AH45" s="28"/>
-      <c r="AI45" s="29"/>
+      <c r="AH45" s="43"/>
+      <c r="AI45" s="44"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
@@ -7396,15 +7396,15 @@
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="45"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="60"/>
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
-      <c r="V46" s="48"/>
+      <c r="V46" s="63"/>
       <c r="W46" s="11"/>
       <c r="X46" s="24"/>
       <c r="Y46" s="24"/>
@@ -7412,12 +7412,12 @@
       <c r="AA46" s="11"/>
       <c r="AB46" s="11"/>
       <c r="AC46" s="11"/>
-      <c r="AD46" s="51"/>
+      <c r="AD46" s="66"/>
       <c r="AE46" s="11"/>
       <c r="AF46" s="11"/>
       <c r="AG46" s="11"/>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="29"/>
+      <c r="AH46" s="43"/>
+      <c r="AI46" s="44"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
@@ -7435,15 +7435,15 @@
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="45"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="60"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
-      <c r="V47" s="48"/>
+      <c r="V47" s="63"/>
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="24"/>
@@ -7451,12 +7451,12 @@
       <c r="AA47" s="11"/>
       <c r="AB47" s="11"/>
       <c r="AC47" s="11"/>
-      <c r="AD47" s="51"/>
+      <c r="AD47" s="66"/>
       <c r="AE47" s="11"/>
       <c r="AF47" s="11"/>
       <c r="AG47" s="11"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="29"/>
+      <c r="AH47" s="43"/>
+      <c r="AI47" s="44"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
@@ -7472,15 +7472,15 @@
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="45"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="60"/>
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
-      <c r="V48" s="48"/>
+      <c r="V48" s="63"/>
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
@@ -7488,16 +7488,16 @@
       <c r="AA48" s="11"/>
       <c r="AB48" s="11"/>
       <c r="AC48" s="11"/>
-      <c r="AD48" s="51"/>
+      <c r="AD48" s="66"/>
       <c r="AE48" s="11"/>
       <c r="AF48" s="11"/>
       <c r="AG48" s="11"/>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="29"/>
+      <c r="AH48" s="43"/>
+      <c r="AI48" s="44"/>
     </row>
     <row r="49" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -7511,15 +7511,15 @@
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="45"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="60"/>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
-      <c r="V49" s="48"/>
+      <c r="V49" s="63"/>
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
@@ -7527,12 +7527,12 @@
       <c r="AA49" s="11"/>
       <c r="AB49" s="11"/>
       <c r="AC49" s="11"/>
-      <c r="AD49" s="51"/>
+      <c r="AD49" s="66"/>
       <c r="AE49" s="11"/>
       <c r="AF49" s="11"/>
       <c r="AG49" s="11"/>
-      <c r="AH49" s="28"/>
-      <c r="AI49" s="29"/>
+      <c r="AH49" s="43"/>
+      <c r="AI49" s="44"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
@@ -7550,15 +7550,15 @@
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="45"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="60"/>
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
-      <c r="V50" s="48"/>
+      <c r="V50" s="63"/>
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
       <c r="Y50" s="24"/>
@@ -7566,16 +7566,16 @@
       <c r="AA50" s="24"/>
       <c r="AB50" s="11"/>
       <c r="AC50" s="11"/>
-      <c r="AD50" s="51"/>
+      <c r="AD50" s="66"/>
       <c r="AE50" s="11"/>
       <c r="AF50" s="11"/>
       <c r="AG50" s="11"/>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="29"/>
+      <c r="AH50" s="43"/>
+      <c r="AI50" s="44"/>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -7589,15 +7589,15 @@
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="45"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="60"/>
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
-      <c r="V51" s="48"/>
+      <c r="V51" s="63"/>
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="24"/>
@@ -7605,16 +7605,16 @@
       <c r="AA51" s="24"/>
       <c r="AB51" s="24"/>
       <c r="AC51" s="11"/>
-      <c r="AD51" s="51"/>
+      <c r="AD51" s="66"/>
       <c r="AE51" s="11"/>
       <c r="AF51" s="11"/>
       <c r="AG51" s="11"/>
-      <c r="AH51" s="28"/>
-      <c r="AI51" s="29"/>
+      <c r="AH51" s="43"/>
+      <c r="AI51" s="44"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -7628,15 +7628,15 @@
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="45"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="55"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="60"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
-      <c r="V52" s="48"/>
+      <c r="V52" s="63"/>
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="24"/>
@@ -7644,12 +7644,12 @@
       <c r="AA52" s="24"/>
       <c r="AB52" s="24"/>
       <c r="AC52" s="11"/>
-      <c r="AD52" s="51"/>
+      <c r="AD52" s="66"/>
       <c r="AE52" s="11"/>
       <c r="AF52" s="11"/>
       <c r="AG52" s="11"/>
-      <c r="AH52" s="28"/>
-      <c r="AI52" s="29"/>
+      <c r="AH52" s="43"/>
+      <c r="AI52" s="44"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
@@ -7667,15 +7667,15 @@
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="45"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="60"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
-      <c r="V53" s="48"/>
+      <c r="V53" s="63"/>
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
@@ -7683,12 +7683,12 @@
       <c r="AA53" s="24"/>
       <c r="AB53" s="24"/>
       <c r="AC53" s="11"/>
-      <c r="AD53" s="51"/>
+      <c r="AD53" s="66"/>
       <c r="AE53" s="11"/>
       <c r="AF53" s="11"/>
       <c r="AG53" s="11"/>
-      <c r="AH53" s="28"/>
-      <c r="AI53" s="29"/>
+      <c r="AH53" s="43"/>
+      <c r="AI53" s="44"/>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
@@ -7706,15 +7706,15 @@
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="45"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="60"/>
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
-      <c r="V54" s="48"/>
+      <c r="V54" s="63"/>
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
@@ -7722,12 +7722,12 @@
       <c r="AA54" s="24"/>
       <c r="AB54" s="24"/>
       <c r="AC54" s="24"/>
-      <c r="AD54" s="51"/>
+      <c r="AD54" s="66"/>
       <c r="AE54" s="11"/>
       <c r="AF54" s="11"/>
       <c r="AG54" s="11"/>
-      <c r="AH54" s="28"/>
-      <c r="AI54" s="29"/>
+      <c r="AH54" s="43"/>
+      <c r="AI54" s="44"/>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
@@ -7745,15 +7745,15 @@
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="45"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="60"/>
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
-      <c r="V55" s="48"/>
+      <c r="V55" s="63"/>
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
@@ -7761,12 +7761,12 @@
       <c r="AA55" s="11"/>
       <c r="AB55" s="24"/>
       <c r="AC55" s="24"/>
-      <c r="AD55" s="51"/>
+      <c r="AD55" s="66"/>
       <c r="AE55" s="11"/>
       <c r="AF55" s="11"/>
       <c r="AG55" s="11"/>
-      <c r="AH55" s="28"/>
-      <c r="AI55" s="29"/>
+      <c r="AH55" s="43"/>
+      <c r="AI55" s="44"/>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
@@ -7782,15 +7782,15 @@
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="45"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="60"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
-      <c r="V56" s="48"/>
+      <c r="V56" s="63"/>
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
@@ -7798,12 +7798,12 @@
       <c r="AA56" s="11"/>
       <c r="AB56" s="11"/>
       <c r="AC56" s="11"/>
-      <c r="AD56" s="51"/>
+      <c r="AD56" s="66"/>
       <c r="AE56" s="11"/>
       <c r="AF56" s="11"/>
       <c r="AG56" s="11"/>
-      <c r="AH56" s="28"/>
-      <c r="AI56" s="29"/>
+      <c r="AH56" s="43"/>
+      <c r="AI56" s="44"/>
     </row>
     <row r="57" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
@@ -7821,15 +7821,15 @@
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="45"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="60"/>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
-      <c r="V57" s="48"/>
+      <c r="V57" s="63"/>
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
@@ -7837,12 +7837,12 @@
       <c r="AA57" s="11"/>
       <c r="AB57" s="11"/>
       <c r="AC57" s="11"/>
-      <c r="AD57" s="51"/>
+      <c r="AD57" s="66"/>
       <c r="AE57" s="11"/>
       <c r="AF57" s="11"/>
       <c r="AG57" s="11"/>
-      <c r="AH57" s="28"/>
-      <c r="AI57" s="29"/>
+      <c r="AH57" s="43"/>
+      <c r="AI57" s="44"/>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -7860,15 +7860,15 @@
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="45"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="60"/>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
-      <c r="V58" s="48"/>
+      <c r="V58" s="63"/>
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
@@ -7876,12 +7876,12 @@
       <c r="AA58" s="24"/>
       <c r="AB58" s="24"/>
       <c r="AC58" s="24"/>
-      <c r="AD58" s="51"/>
+      <c r="AD58" s="66"/>
       <c r="AE58" s="11"/>
       <c r="AF58" s="11"/>
       <c r="AG58" s="11"/>
-      <c r="AH58" s="28"/>
-      <c r="AI58" s="29"/>
+      <c r="AH58" s="43"/>
+      <c r="AI58" s="44"/>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
@@ -7899,15 +7899,15 @@
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="45"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="56"/>
+      <c r="S59" s="60"/>
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
-      <c r="V59" s="48"/>
+      <c r="V59" s="63"/>
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
@@ -7915,12 +7915,12 @@
       <c r="AA59" s="11"/>
       <c r="AB59" s="11"/>
       <c r="AC59" s="24"/>
-      <c r="AD59" s="51"/>
+      <c r="AD59" s="66"/>
       <c r="AE59" s="11"/>
       <c r="AF59" s="11"/>
       <c r="AG59" s="11"/>
-      <c r="AH59" s="28"/>
-      <c r="AI59" s="29"/>
+      <c r="AH59" s="43"/>
+      <c r="AI59" s="44"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
@@ -7938,15 +7938,15 @@
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="45"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="60"/>
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
-      <c r="V60" s="48"/>
+      <c r="V60" s="63"/>
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
@@ -7954,12 +7954,12 @@
       <c r="AA60" s="11"/>
       <c r="AB60" s="11"/>
       <c r="AC60" s="24"/>
-      <c r="AD60" s="51"/>
+      <c r="AD60" s="66"/>
       <c r="AE60" s="24"/>
       <c r="AF60" s="24"/>
       <c r="AG60" s="24"/>
-      <c r="AH60" s="28"/>
-      <c r="AI60" s="29"/>
+      <c r="AH60" s="43"/>
+      <c r="AI60" s="44"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
@@ -7977,15 +7977,15 @@
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="45"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="60"/>
       <c r="T61" s="11"/>
       <c r="U61" s="11"/>
-      <c r="V61" s="48"/>
+      <c r="V61" s="63"/>
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
@@ -7993,12 +7993,12 @@
       <c r="AA61" s="11"/>
       <c r="AB61" s="11"/>
       <c r="AC61" s="11"/>
-      <c r="AD61" s="51"/>
+      <c r="AD61" s="66"/>
       <c r="AE61" s="11"/>
       <c r="AF61" s="11"/>
       <c r="AG61" s="24"/>
-      <c r="AH61" s="28"/>
-      <c r="AI61" s="29"/>
+      <c r="AH61" s="43"/>
+      <c r="AI61" s="44"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
@@ -8016,15 +8016,15 @@
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="41"/>
-      <c r="S62" s="45"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="60"/>
       <c r="T62" s="11"/>
       <c r="U62" s="11"/>
-      <c r="V62" s="48"/>
+      <c r="V62" s="63"/>
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
@@ -8032,12 +8032,12 @@
       <c r="AA62" s="11"/>
       <c r="AB62" s="11"/>
       <c r="AC62" s="11"/>
-      <c r="AD62" s="51"/>
+      <c r="AD62" s="66"/>
       <c r="AE62" s="11"/>
       <c r="AF62" s="11"/>
       <c r="AG62" s="24"/>
-      <c r="AH62" s="28"/>
-      <c r="AI62" s="29"/>
+      <c r="AH62" s="43"/>
+      <c r="AI62" s="44"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
@@ -8055,15 +8055,15 @@
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="41"/>
-      <c r="S63" s="45"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="60"/>
       <c r="T63" s="11"/>
       <c r="U63" s="11"/>
-      <c r="V63" s="48"/>
+      <c r="V63" s="63"/>
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
@@ -8071,12 +8071,12 @@
       <c r="AA63" s="11"/>
       <c r="AB63" s="11"/>
       <c r="AC63" s="11"/>
-      <c r="AD63" s="51"/>
+      <c r="AD63" s="66"/>
       <c r="AE63" s="11"/>
       <c r="AF63" s="11"/>
       <c r="AG63" s="11"/>
-      <c r="AH63" s="28"/>
-      <c r="AI63" s="29"/>
+      <c r="AH63" s="43"/>
+      <c r="AI63" s="44"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
@@ -8094,15 +8094,15 @@
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="46"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="58"/>
+      <c r="S64" s="61"/>
       <c r="T64" s="11"/>
       <c r="U64" s="11"/>
-      <c r="V64" s="49"/>
+      <c r="V64" s="64"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
@@ -8110,15 +8110,24 @@
       <c r="AA64" s="11"/>
       <c r="AB64" s="11"/>
       <c r="AC64" s="11"/>
-      <c r="AD64" s="52"/>
+      <c r="AD64" s="67"/>
       <c r="AE64" s="11"/>
       <c r="AF64" s="11"/>
       <c r="AG64" s="11"/>
-      <c r="AH64" s="30"/>
-      <c r="AI64" s="31"/>
+      <c r="AH64" s="45"/>
+      <c r="AI64" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AH9:AI64"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="N9:P64"/>
+    <mergeCell ref="Q9:R64"/>
+    <mergeCell ref="S9:S64"/>
+    <mergeCell ref="V9:V64"/>
+    <mergeCell ref="AD9:AD64"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="Y7:AB7"/>
@@ -8132,15 +8141,6 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="P7:T7"/>
-    <mergeCell ref="AH9:AI64"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="N9:P64"/>
-    <mergeCell ref="Q9:R64"/>
-    <mergeCell ref="S9:S64"/>
-    <mergeCell ref="V9:V64"/>
-    <mergeCell ref="AD9:AD64"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AH6:AI6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
